--- a/documentation/build_orders/zerg/ling_bane.xlsx
+++ b/documentation/build_orders/zerg/ling_bane.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\zerg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D999D45-C3B7-453A-A7F9-1A96077065DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB36E67A-7A2C-448F-B671-F6E00E6D5BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="8265" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -469,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C1E2F8-D576-4889-93BF-4269B7626941}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +505,9 @@
       <c r="C2">
         <v>12</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -515,6 +518,9 @@
       </c>
       <c r="C3">
         <v>44</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -527,6 +533,9 @@
       <c r="C4">
         <v>50</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -538,6 +547,9 @@
       <c r="C5">
         <v>78</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -549,6 +561,9 @@
       <c r="C6">
         <v>96</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -560,6 +575,9 @@
       <c r="C7">
         <v>97</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -570,6 +588,9 @@
       </c>
       <c r="C8">
         <v>97</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,6 +603,9 @@
       <c r="C9">
         <v>105</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -593,6 +617,9 @@
       <c r="C10">
         <v>112</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -604,6 +631,9 @@
       <c r="C11">
         <v>132</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -614,6 +644,9 @@
       </c>
       <c r="C12">
         <v>149</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -626,6 +659,9 @@
       <c r="C13">
         <v>169</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -636,6 +672,9 @@
       </c>
       <c r="C14">
         <v>174</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,6 +687,9 @@
       <c r="C15">
         <v>188</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -659,8 +701,11 @@
       <c r="C16">
         <v>205</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -670,8 +715,11 @@
       <c r="C17">
         <v>209</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -681,8 +729,11 @@
       <c r="C18">
         <v>213</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -692,8 +743,11 @@
       <c r="C19">
         <v>223</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -703,8 +757,11 @@
       <c r="C20">
         <v>228</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -714,8 +771,11 @@
       <c r="C21">
         <v>228</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -725,8 +785,11 @@
       <c r="C22">
         <v>243</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -736,8 +799,11 @@
       <c r="C23">
         <v>250</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -747,8 +813,11 @@
       <c r="C24">
         <v>252</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -758,8 +827,11 @@
       <c r="C25">
         <v>252</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -769,8 +841,11 @@
       <c r="C26">
         <v>258</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -780,8 +855,11 @@
       <c r="C27">
         <v>261</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -791,8 +869,11 @@
       <c r="C28">
         <v>274</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -802,8 +883,11 @@
       <c r="C29">
         <v>299</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -813,8 +897,11 @@
       <c r="C30">
         <v>299</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -824,8 +911,11 @@
       <c r="C31">
         <v>314</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -835,8 +925,11 @@
       <c r="C32">
         <v>314</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -846,8 +939,11 @@
       <c r="C33">
         <v>321</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -857,8 +953,11 @@
       <c r="C34">
         <v>337</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -868,8 +967,11 @@
       <c r="C35">
         <v>339</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -879,8 +981,11 @@
       <c r="C36">
         <v>350</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -890,8 +995,11 @@
       <c r="C37">
         <v>371</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -900,6 +1008,9 @@
       </c>
       <c r="C38">
         <v>388</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
